--- a/Modulo 4 - Mais tópicos de edição e formatação/exercicio-proposto-formas-e-mais.xlsx
+++ b/Modulo 4 - Mais tópicos de edição e formatação/exercicio-proposto-formas-e-mais.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20401"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\04 Mais tópicos de edição e formatação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarketTi\Desktop\Curso-Excel\Modulo 4 - Mais tópicos de edição e formatação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93E97650-1C7D-4C47-8D0C-60CC296A4CEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Menu" sheetId="1" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>MENU</t>
   </si>
@@ -91,12 +92,33 @@
   <si>
     <t>Semana de 01 a 07/10/2018</t>
   </si>
+  <si>
+    <t>Seg</t>
+  </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>Qua</t>
+  </si>
+  <si>
+    <t>Qui</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Sáb</t>
+  </si>
+  <si>
+    <t>Dom</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,24 +141,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color theme="0" tint="-0.14999847407452621"/>
-      <name val="Arial Black"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color theme="1"/>
       <name val="Arial Black"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -167,6 +175,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color theme="0"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -188,7 +216,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -409,6 +437,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color theme="2" tint="-0.499984740745262"/>
       </left>
@@ -420,22 +459,24 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
-      </top>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.499984740745262"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -494,7 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,33 +559,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="8" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="8" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,37 +616,49 @@
     <xf numFmtId="14" fontId="1" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -630,6 +677,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>247970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagem 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8B5F0E-A715-46FC-AF69-6D6407978E79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5803900" y="2406970"/>
+          <a:ext cx="3562350" cy="2044380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -928,24 +1024,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
@@ -962,8 +1060,8 @@
       <c r="N2" s="2"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="4"/>
@@ -980,8 +1078,8 @@
       <c r="N3" s="4"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="51"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -996,79 +1094,79 @@
       <c r="N4" s="4"/>
       <c r="O4" s="5"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
-      <c r="G5" s="53" t="s">
+      <c r="G5" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="H5" s="53"/>
-      <c r="I5" s="53"/>
-      <c r="J5" s="53"/>
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="5"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="51"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
       <c r="O7" s="5"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="51"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="5"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1078,7 +1176,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="5"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -1094,7 +1192,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="5"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
@@ -1110,7 +1208,7 @@
       <c r="N11" s="4"/>
       <c r="O11" s="5"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
@@ -1126,7 +1224,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="5"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
@@ -1142,7 +1240,7 @@
       <c r="N13" s="4"/>
       <c r="O13" s="5"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -1158,7 +1256,7 @@
       <c r="N14" s="4"/>
       <c r="O14" s="5"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -1174,7 +1272,7 @@
       <c r="N15" s="4"/>
       <c r="O15" s="5"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -1190,7 +1288,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="5"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -1206,7 +1304,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="5"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -1216,7 +1314,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="5"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
@@ -1226,7 +1324,7 @@
       <c r="N19" s="4"/>
       <c r="O19" s="5"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -1236,7 +1334,7 @@
       <c r="N20" s="4"/>
       <c r="O20" s="5"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
@@ -1246,7 +1344,7 @@
       <c r="N21" s="4"/>
       <c r="O21" s="5"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -1256,7 +1354,7 @@
       <c r="N22" s="4"/>
       <c r="O22" s="5"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
@@ -1266,7 +1364,7 @@
       <c r="N23" s="4"/>
       <c r="O23" s="5"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1282,7 +1380,7 @@
       <c r="N24" s="4"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
@@ -1298,7 +1396,7 @@
       <c r="N25" s="4"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="16"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1314,7 +1412,7 @@
       <c r="N26" s="4"/>
       <c r="O26" s="5"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1330,8 +1428,8 @@
       <c r="N27" s="6"/>
       <c r="O27" s="7"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B3:B4"/>
@@ -1340,31 +1438,39 @@
     <mergeCell ref="G5:L7"/>
     <mergeCell ref="G8:L8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B3:B4" location="Vendas!A1" display="Vendas" xr:uid="{EB632958-9EBB-48D4-9274-8C248C48F6BF}"/>
+    <hyperlink ref="B5:B6" location="Estoques!A1" display="Estoques" xr:uid="{4AD397FE-98FE-4C9D-856C-F3B8B6447CD2}"/>
+    <hyperlink ref="B7:B8" location="Relatório!A1" display="Relatório" xr:uid="{1F19CFC6-C69F-482B-832C-040EA1F51CD3}"/>
+    <hyperlink ref="B2" location="Menu!A1" display="MENU" xr:uid="{0F3CED09-89ED-465F-B923-268114EEB148}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
@@ -1383,8 +1489,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="55" t="s">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21"/>
@@ -1401,36 +1507,36 @@
       <c r="N3" s="21"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="55"/>
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="58"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="58" t="s">
+      <c r="E4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="58" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="59"/>
-      <c r="I4" s="58" t="s">
+      <c r="H4" s="57"/>
+      <c r="I4" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="59"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="57"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="26" t="s">
         <v>8</v>
       </c>
@@ -1455,10 +1561,12 @@
       <c r="N5" s="27"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="51"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="34"/>
+      <c r="D6" s="34">
+        <v>43344</v>
+      </c>
       <c r="E6" s="28"/>
       <c r="F6" s="29"/>
       <c r="G6" s="28"/>
@@ -1471,12 +1579,14 @@
       <c r="N6" s="29"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="35"/>
+      <c r="D7" s="60">
+        <v>43346</v>
+      </c>
       <c r="E7" s="30"/>
       <c r="F7" s="31"/>
       <c r="G7" s="30"/>
@@ -1489,10 +1599,12 @@
       <c r="N7" s="31"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="51"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="35"/>
+      <c r="D8" s="60">
+        <v>43347</v>
+      </c>
       <c r="E8" s="30"/>
       <c r="F8" s="31"/>
       <c r="G8" s="30"/>
@@ -1505,10 +1617,12 @@
       <c r="N8" s="31"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="35"/>
+      <c r="D9" s="60">
+        <v>43348</v>
+      </c>
       <c r="E9" s="30"/>
       <c r="F9" s="31"/>
       <c r="G9" s="30"/>
@@ -1521,10 +1635,12 @@
       <c r="N9" s="31"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="35"/>
+      <c r="D10" s="60">
+        <v>43349</v>
+      </c>
       <c r="E10" s="30"/>
       <c r="F10" s="31"/>
       <c r="G10" s="30"/>
@@ -1537,10 +1653,12 @@
       <c r="N10" s="31"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="35"/>
+      <c r="D11" s="60">
+        <v>43350</v>
+      </c>
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="30"/>
@@ -1553,10 +1671,12 @@
       <c r="N11" s="31"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="35"/>
+      <c r="D12" s="60">
+        <v>43353</v>
+      </c>
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
       <c r="G12" s="30"/>
@@ -1569,10 +1689,12 @@
       <c r="N12" s="31"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="35"/>
+      <c r="D13" s="60">
+        <v>43354</v>
+      </c>
       <c r="E13" s="30"/>
       <c r="F13" s="31"/>
       <c r="G13" s="30"/>
@@ -1585,10 +1707,12 @@
       <c r="N13" s="31"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="35"/>
+      <c r="D14" s="60">
+        <v>43355</v>
+      </c>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="30"/>
@@ -1601,10 +1725,12 @@
       <c r="N14" s="31"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="35"/>
+      <c r="D15" s="60">
+        <v>43356</v>
+      </c>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="30"/>
@@ -1617,10 +1743,12 @@
       <c r="N15" s="31"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="35"/>
+      <c r="D16" s="60">
+        <v>43357</v>
+      </c>
       <c r="E16" s="30"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
@@ -1633,10 +1761,12 @@
       <c r="N16" s="31"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="35"/>
+      <c r="D17" s="60">
+        <v>43360</v>
+      </c>
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
@@ -1649,10 +1779,12 @@
       <c r="N17" s="31"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="35"/>
+      <c r="D18" s="60">
+        <v>43361</v>
+      </c>
       <c r="E18" s="30"/>
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
@@ -1665,10 +1797,12 @@
       <c r="N18" s="31"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="35"/>
+      <c r="D19" s="60">
+        <v>43362</v>
+      </c>
       <c r="E19" s="30"/>
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
@@ -1681,10 +1815,12 @@
       <c r="N19" s="31"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="35"/>
+      <c r="D20" s="60">
+        <v>43363</v>
+      </c>
       <c r="E20" s="30"/>
       <c r="F20" s="31"/>
       <c r="G20" s="30"/>
@@ -1697,10 +1833,12 @@
       <c r="N20" s="31"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="35"/>
+      <c r="D21" s="60">
+        <v>43364</v>
+      </c>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="30"/>
@@ -1713,10 +1851,12 @@
       <c r="N21" s="31"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="35"/>
+      <c r="D22" s="60">
+        <v>43367</v>
+      </c>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="30"/>
@@ -1729,10 +1869,12 @@
       <c r="N22" s="31"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="35"/>
+      <c r="D23" s="60">
+        <v>43368</v>
+      </c>
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
       <c r="G23" s="30"/>
@@ -1745,10 +1887,12 @@
       <c r="N23" s="31"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="35"/>
+      <c r="D24" s="60">
+        <v>43369</v>
+      </c>
       <c r="E24" s="30"/>
       <c r="F24" s="31"/>
       <c r="G24" s="30"/>
@@ -1761,10 +1905,12 @@
       <c r="N24" s="31"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="35"/>
+      <c r="D25" s="60">
+        <v>43370</v>
+      </c>
       <c r="E25" s="30"/>
       <c r="F25" s="31"/>
       <c r="G25" s="30"/>
@@ -1777,11 +1923,13 @@
       <c r="N25" s="31"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="16"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="32"/>
+      <c r="D26" s="61">
+        <v>43371</v>
+      </c>
+      <c r="E26" s="50"/>
       <c r="F26" s="33"/>
       <c r="G26" s="32"/>
       <c r="H26" s="33"/>
@@ -1793,7 +1941,7 @@
       <c r="N26" s="33"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -1809,11 +1957,10 @@
       <c r="N27" s="23"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="G4:H4"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="K4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -1822,30 +1969,39 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B5:B6" location="Estoques!A1" display="Estoques" xr:uid="{DEFC8EA8-300F-42D0-9308-AF81CD5D8ED6}"/>
+    <hyperlink ref="B7:B8" location="Relatório!A1" display="Relatório" xr:uid="{267CAB06-59B8-4182-B367-EF9BC3D575F6}"/>
+    <hyperlink ref="B2" location="Menu!A1" display="MENU" xr:uid="{E9D303F0-98D6-4B97-9B1C-2CC1E02820EC}"/>
+    <hyperlink ref="B3:B4" location="Vendas!A1" display="Vendas" xr:uid="{F01672A0-81E6-48C0-B44D-56185B7B271E}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
@@ -1864,8 +2020,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21"/>
@@ -1882,379 +2038,379 @@
       <c r="N3" s="21"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
+    <row r="4" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="51"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="55" t="s">
+    <row r="5" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="58" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="55"/>
+    <row r="6" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="58"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
+    <row r="7" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="51" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="52"/>
+    <row r="8" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="51"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="37"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="37"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="16"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2270,39 +2426,47 @@
       <c r="N27" s="23"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="B3:B4"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B7:B8" location="Relatório!A1" display="Relatório" xr:uid="{5BCC78C2-CCEA-41AC-839E-54552C654E65}"/>
+    <hyperlink ref="B3:B4" location="Vendas!A1" display="Vendas" xr:uid="{1AD1E740-F6C6-4FEA-AB86-88306D5C3F4E}"/>
+    <hyperlink ref="B2" location="Menu!A1" display="MENU" xr:uid="{45C88FAB-B32F-45E1-9C5B-D0C4D3A68913}"/>
+    <hyperlink ref="B5:B6" location="Estoques!A1" display="Estoques" xr:uid="{8227B30C-AE06-4098-887D-D6CD873C6C36}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" style="1" customWidth="1"/>
-    <col min="4" max="15" width="12.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="12.7109375" style="1" hidden="1"/>
+    <col min="1" max="1" width="3.7265625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="2.7265625" style="1" customWidth="1"/>
+    <col min="4" max="15" width="12.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="3.7265625" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="12.7265625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:15" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="1:15" ht="5.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="49"/>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
@@ -2321,8 +2485,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="52" t="s">
+    <row r="3" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="51" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="21"/>
@@ -2339,391 +2503,405 @@
       <c r="N3" s="21"/>
       <c r="O3" s="22"/>
     </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52"/>
+    <row r="4" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="51"/>
       <c r="C4" s="21"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="35"/>
+      <c r="E4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="39" t="s">
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
       <c r="O4" s="22"/>
     </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="52" t="s">
+    <row r="5" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="51" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="21"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="37"/>
-      <c r="N5" s="37"/>
+      <c r="F5" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="47" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="47" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="59" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
       <c r="O5" s="22"/>
     </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="52"/>
+    <row r="6" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="51"/>
       <c r="C6" s="21"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="35"/>
+      <c r="E6" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="40"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
       <c r="O6" s="22"/>
     </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="55" t="s">
+    <row r="7" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="21"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="43" t="s">
+      <c r="D7" s="35"/>
+      <c r="E7" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="37"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
       <c r="O7" s="22"/>
     </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="55"/>
+    <row r="8" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="58"/>
       <c r="C8" s="21"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="45" t="s">
+      <c r="D8" s="35"/>
+      <c r="E8" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="46"/>
-      <c r="K8" s="46"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
       <c r="O8" s="22"/>
     </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B9" s="18"/>
       <c r="C9" s="21"/>
-      <c r="D9" s="37"/>
+      <c r="D9" s="35"/>
       <c r="E9" s="25"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="37"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
       <c r="O9" s="22"/>
     </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B10" s="18"/>
       <c r="C10" s="21"/>
-      <c r="D10" s="37"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="25"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
       <c r="O10" s="22"/>
     </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="19"/>
       <c r="C11" s="21"/>
-      <c r="D11" s="37"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="25"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="37"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
       <c r="O11" s="22"/>
     </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="19"/>
       <c r="C12" s="21"/>
-      <c r="D12" s="37"/>
+      <c r="D12" s="35"/>
       <c r="E12" s="25"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-      <c r="M12" s="37"/>
-      <c r="N12" s="37"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
       <c r="O12" s="22"/>
     </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="19"/>
       <c r="C13" s="21"/>
-      <c r="D13" s="37"/>
+      <c r="D13" s="35"/>
       <c r="E13" s="25"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
       <c r="O13" s="22"/>
     </row>
-    <row r="14" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="19"/>
       <c r="C14" s="21"/>
-      <c r="D14" s="37"/>
+      <c r="D14" s="35"/>
       <c r="E14" s="25"/>
-      <c r="F14" s="37"/>
-      <c r="G14" s="37"/>
-      <c r="H14" s="37"/>
-      <c r="I14" s="37"/>
-      <c r="J14" s="37"/>
-      <c r="K14" s="37"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="37"/>
-      <c r="N14" s="37"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
       <c r="O14" s="22"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="16"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="37"/>
+      <c r="D15" s="35"/>
       <c r="E15" s="25"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
       <c r="O15" s="22"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="16"/>
       <c r="C16" s="21"/>
-      <c r="D16" s="37"/>
+      <c r="D16" s="35"/>
       <c r="E16" s="25"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="37"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="37"/>
-      <c r="N16" s="37"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
       <c r="O16" s="22"/>
     </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="16"/>
       <c r="C17" s="21"/>
-      <c r="D17" s="37"/>
+      <c r="D17" s="35"/>
       <c r="E17" s="25"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="37"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
       <c r="O17" s="22"/>
     </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="16"/>
       <c r="C18" s="21"/>
-      <c r="D18" s="37"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="25"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="37"/>
-      <c r="L18" s="37"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="37"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
       <c r="O18" s="22"/>
     </row>
-    <row r="19" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="16"/>
       <c r="C19" s="21"/>
-      <c r="D19" s="37"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="25"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
       <c r="O19" s="22"/>
     </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="16"/>
       <c r="C20" s="21"/>
-      <c r="D20" s="37"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="25"/>
-      <c r="F20" s="37"/>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="37"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
       <c r="O20" s="22"/>
     </row>
-    <row r="21" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="16"/>
       <c r="C21" s="21"/>
-      <c r="D21" s="37"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="25"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="37"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
       <c r="O21" s="22"/>
     </row>
-    <row r="22" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="16"/>
       <c r="C22" s="21"/>
-      <c r="D22" s="37"/>
+      <c r="D22" s="35"/>
       <c r="E22" s="25"/>
-      <c r="F22" s="37"/>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="37"/>
-      <c r="K22" s="37"/>
-      <c r="L22" s="37"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
       <c r="O22" s="22"/>
     </row>
-    <row r="23" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="16"/>
       <c r="C23" s="21"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="37"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
       <c r="O23" s="22"/>
     </row>
-    <row r="24" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="16"/>
       <c r="C24" s="21"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="37"/>
-      <c r="L24" s="37"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="37"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
       <c r="O24" s="22"/>
     </row>
-    <row r="25" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="16"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="37"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
       <c r="O25" s="22"/>
     </row>
-    <row r="26" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="16"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="37"/>
-      <c r="L26" s="37"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="37"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
       <c r="O26" s="22"/>
     </row>
-    <row r="27" spans="2:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="17"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
@@ -2739,14 +2917,21 @@
       <c r="N27" s="23"/>
       <c r="O27" s="24"/>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="2:15" ht="14.5" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B2" location="Menu!A1" display="MENU" xr:uid="{7741427D-7655-4D33-AD6C-80999E0D386C}"/>
+    <hyperlink ref="B3:B4" location="Vendas!A1" display="Vendas" xr:uid="{17AE3DF1-1D3C-4E1D-A912-05C63CF4C273}"/>
+    <hyperlink ref="B5:B6" location="Estoques!A1" display="Estoques" xr:uid="{5C9C7C42-ABD3-44A7-9012-826A7CCEB538}"/>
+    <hyperlink ref="B7:B8" location="Relatório!A1" display="Relatório" xr:uid="{0BB9DDDD-6CB6-4226-95FC-B9B903B7448D}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>